--- a/server/uploads/Climbing Log - Copy.xlsx
+++ b/server/uploads/Climbing Log - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4bf751f8bfedcb28/Documents/Coding/Projects/Indoor-Climbing-Log/server/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="451" documentId="13_ncr:1_{4C0F1DB3-4832-4FF6-A945-47266C1B13AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2605D5F-B331-4972-A8DC-94E36814FC3B}"/>
+  <xr:revisionPtr revIDLastSave="457" documentId="13_ncr:1_{4C0F1DB3-4832-4FF6-A945-47266C1B13AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6B6C6D7-F6E6-48C2-BD84-7F77FAA9A4D2}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1755" windowWidth="29040" windowHeight="15720" tabRatio="696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="115">
   <si>
     <t>Notes</t>
   </si>
@@ -347,33 +347,6 @@
     <t>RouteId</t>
   </si>
   <si>
-    <t>purple</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>pink</t>
-  </si>
-  <si>
     <t>Hangdog</t>
   </si>
   <si>
@@ -381,6 +354,72 @@
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>1 fall. Repeat same session, got past the lip</t>
+  </si>
+  <si>
+    <t>Z clipped so was lowered</t>
+  </si>
+  <si>
+    <t>1 fall to ground</t>
+  </si>
+  <si>
+    <t>5+ falls</t>
+  </si>
+  <si>
+    <t>1 fall. Did not want to risk fall on 2nd clip so came down</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Pink</t>
+  </si>
+  <si>
+    <t>Blue Banded Bees</t>
+  </si>
+  <si>
+    <t>Side Kick</t>
+  </si>
+  <si>
+    <t>Sticky Fingers</t>
+  </si>
+  <si>
+    <t>Big Cheese</t>
+  </si>
+  <si>
+    <t>Succulent Crimp</t>
+  </si>
+  <si>
+    <t>Emperor's Warmup</t>
+  </si>
+  <si>
+    <t>Fumble Toes</t>
+  </si>
+  <si>
+    <t>Finding Nemo</t>
   </si>
 </sst>
 </file>
@@ -473,41 +512,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCDCD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCDCD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -532,6 +537,23 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCDCD"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -548,10 +570,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -820,12 +838,12 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F10" sqref="F10"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -884,7 +902,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -909,7 +927,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -923,7 +941,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -970,7 +988,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -984,7 +1002,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1012,7 +1030,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -1026,7 +1044,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1062,7 +1080,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
@@ -1076,7 +1094,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1090,7 +1108,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1112,7 +1130,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
@@ -1148,7 +1166,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -1162,7 +1180,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1184,7 +1202,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
         <v>32</v>
@@ -1198,7 +1216,7 @@
         <v>19</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
@@ -1212,7 +1230,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
@@ -1248,7 +1266,7 @@
         <v>10</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
@@ -1262,7 +1280,7 @@
         <v>23</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D34" t="s">
         <v>37</v>
@@ -1276,7 +1294,7 @@
         <v>24</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D35" t="s">
         <v>38</v>
@@ -1304,7 +1322,7 @@
         <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1326,7 +1344,7 @@
         <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1351,7 +1369,7 @@
         <v>19</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D41" t="s">
         <v>45</v>
@@ -1393,7 +1411,7 @@
         <v>29</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
         <v>15</v>
@@ -1418,7 +1436,7 @@
         <v>19</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1429,7 +1447,7 @@
         <v>3</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D47" t="s">
         <v>15</v>
@@ -1443,7 +1461,7 @@
         <v>31</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
@@ -1457,7 +1475,7 @@
         <v>32</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D49" t="s">
         <v>49</v>
@@ -1493,7 +1511,7 @@
         <v>25</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D52" t="s">
         <v>14</v>
@@ -1521,7 +1539,7 @@
         <v>31</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D54" t="s">
         <v>15</v>
@@ -1535,7 +1553,7 @@
         <v>35</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D55" t="s">
         <v>15</v>
@@ -1549,7 +1567,7 @@
         <v>35</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D56" t="s">
         <v>57</v>
@@ -1574,7 +1592,7 @@
         <v>22</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1585,7 +1603,7 @@
         <v>35</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D59" t="s">
         <v>59</v>
@@ -1599,7 +1617,7 @@
         <v>25</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D60" t="s">
         <v>22</v>
@@ -1649,7 +1667,7 @@
         <v>31</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D64" t="s">
         <v>15</v>
@@ -1677,7 +1695,7 @@
         <v>25</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D66" t="s">
         <v>14</v>
@@ -1691,7 +1709,7 @@
         <v>29</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1702,7 +1720,7 @@
         <v>31</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1749,7 +1767,7 @@
         <v>6</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1760,7 +1778,7 @@
         <v>35</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1782,7 +1800,7 @@
         <v>43</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D75" t="s">
         <v>22</v>
@@ -1796,7 +1814,7 @@
         <v>2</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D76" t="s">
         <v>15</v>
@@ -1810,7 +1828,7 @@
         <v>12</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1843,7 +1861,7 @@
         <v>2</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -1854,7 +1872,7 @@
         <v>46</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D81" t="s">
         <v>49</v>
@@ -1879,7 +1897,7 @@
         <v>19</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D83" t="s">
         <v>71</v>
@@ -1893,7 +1911,7 @@
         <v>19</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D84" t="s">
         <v>15</v>
@@ -1918,7 +1936,7 @@
         <v>31</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -1929,7 +1947,7 @@
         <v>19</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -1954,7 +1972,7 @@
         <v>2</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -1976,7 +1994,7 @@
         <v>47</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -1987,7 +2005,7 @@
         <v>51</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D92" t="s">
         <v>22</v>
@@ -2037,7 +2055,7 @@
         <v>45</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2048,7 +2066,7 @@
         <v>12</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2059,7 +2077,7 @@
         <v>51</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D98" t="s">
         <v>79</v>
@@ -2101,7 +2119,7 @@
         <v>25</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D101" t="s">
         <v>82</v>
@@ -2115,7 +2133,7 @@
         <v>26</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2126,7 +2144,7 @@
         <v>25</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D103" t="s">
         <v>79</v>
@@ -2140,7 +2158,7 @@
         <v>51</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2173,7 +2191,7 @@
         <v>23</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D107" t="s">
         <v>87</v>
@@ -2187,7 +2205,7 @@
         <v>51</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2198,7 +2216,7 @@
         <v>56</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D109" t="s">
         <v>79</v>
@@ -2223,7 +2241,327 @@
         <v>12</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="5">
+        <v>45362</v>
+      </c>
+      <c r="B112" s="1">
+        <v>17</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="5">
+        <v>45362</v>
+      </c>
+      <c r="B113" s="1">
+        <v>6</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="5">
+        <v>45362</v>
+      </c>
+      <c r="B114" s="1">
+        <v>25</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D114" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="5">
+        <v>45362</v>
+      </c>
+      <c r="B115" s="1">
+        <v>25</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D115" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="5">
+        <v>45362</v>
+      </c>
+      <c r="B116" s="1">
+        <v>56</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D116" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="5">
+        <v>45362</v>
+      </c>
+      <c r="B117" s="1">
+        <v>37</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="5">
+        <v>45362</v>
+      </c>
+      <c r="B118" s="1">
+        <v>42</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D118" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="5">
+        <v>45364</v>
+      </c>
+      <c r="B119" s="1">
+        <v>40</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="5">
+        <v>45364</v>
+      </c>
+      <c r="B120" s="1">
+        <v>58</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="5">
+        <v>45364</v>
+      </c>
+      <c r="B121" s="1">
+        <v>25</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="5">
+        <v>45364</v>
+      </c>
+      <c r="B122" s="1">
+        <v>59</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="5">
+        <v>45364</v>
+      </c>
+      <c r="B123" s="1">
+        <v>59</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="5">
+        <v>45364</v>
+      </c>
+      <c r="B124" s="1">
+        <v>59</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D124" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="5">
+        <v>45364</v>
+      </c>
+      <c r="B125" s="1">
+        <v>37</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="5">
+        <v>45364</v>
+      </c>
+      <c r="B126" s="1">
+        <v>60</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="5">
+        <v>45367</v>
+      </c>
+      <c r="B127" s="1">
+        <v>61</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="5">
+        <v>45367</v>
+      </c>
+      <c r="B128" s="1">
+        <v>60</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D128" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="5">
+        <v>45367</v>
+      </c>
+      <c r="B129" s="1">
+        <v>62</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D129" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="5">
+        <v>45367</v>
+      </c>
+      <c r="B130" s="1">
+        <v>42</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D130" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="5">
+        <v>45367</v>
+      </c>
+      <c r="B131" s="1">
+        <v>3</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="5">
+        <v>45369</v>
+      </c>
+      <c r="B132" s="1">
+        <v>63</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="5">
+        <v>45369</v>
+      </c>
+      <c r="B133" s="1">
+        <v>64</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="5">
+        <v>45369</v>
+      </c>
+      <c r="B134" s="1">
+        <v>65</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D134" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="5">
+        <v>45369</v>
+      </c>
+      <c r="B135" s="1">
+        <v>56</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="5">
+        <v>45369</v>
+      </c>
+      <c r="B136" s="1">
+        <v>42</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2256,12 +2594,12 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F10" sqref="F10"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2273,7 +2611,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -2296,7 +2634,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2310,7 +2648,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2324,7 +2662,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2338,7 +2676,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2352,7 +2690,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -2366,7 +2704,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -2380,7 +2718,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2394,7 +2732,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2408,7 +2746,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -2422,7 +2760,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -2436,7 +2774,7 @@
         <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -2450,7 +2788,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -2464,7 +2802,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -2478,7 +2816,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -2492,7 +2830,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2506,7 +2844,7 @@
         <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2520,7 +2858,7 @@
         <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2534,7 +2872,7 @@
         <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2548,7 +2886,7 @@
         <v>22</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2562,7 +2900,7 @@
         <v>21</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2576,7 +2914,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2590,7 +2928,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2604,7 +2942,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2618,7 +2956,7 @@
         <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2632,7 +2970,7 @@
         <v>24</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2646,7 +2984,7 @@
         <v>18</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2660,7 +2998,7 @@
         <v>22</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2674,7 +3012,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2688,7 +3026,7 @@
         <v>20</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2702,7 +3040,7 @@
         <v>17</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2716,7 +3054,7 @@
         <v>22</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -2730,7 +3068,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -2744,7 +3082,7 @@
         <v>18</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -2758,7 +3096,7 @@
         <v>21</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -2772,7 +3110,7 @@
         <v>22</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -2786,7 +3124,7 @@
         <v>17</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -2800,7 +3138,7 @@
         <v>26</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -2814,7 +3152,7 @@
         <v>18</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -2828,7 +3166,7 @@
         <v>18</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -2842,7 +3180,7 @@
         <v>17</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -2856,7 +3194,7 @@
         <v>18</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -2870,7 +3208,7 @@
         <v>22</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2884,7 +3222,7 @@
         <v>22</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2898,7 +3236,7 @@
         <v>17</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2912,7 +3250,7 @@
         <v>19</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2926,7 +3264,7 @@
         <v>22</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -2940,7 +3278,7 @@
         <v>20</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -2954,7 +3292,7 @@
         <v>17</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -2968,7 +3306,7 @@
         <v>15</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -2982,7 +3320,7 @@
         <v>18</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -2996,7 +3334,7 @@
         <v>22</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -3010,7 +3348,7 @@
         <v>18</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -3024,7 +3362,7 @@
         <v>21</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -3038,7 +3376,7 @@
         <v>17</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -3052,7 +3390,7 @@
         <v>21</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -3066,7 +3404,7 @@
         <v>22</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -3080,31 +3418,141 @@
         <v>21</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="1">
+        <v>19</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="1">
+        <v>21</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="1">
+        <v>24</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" s="1">
+        <v>19</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" s="1">
+        <v>23</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="1">
+        <v>18</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" s="1">
+        <v>22</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="1">
+        <v>19</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:D39" xr:uid="{FDD31DB7-A76C-4233-82FF-25C6D190D93B}"/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$G1="X"</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="5" priority="28">
+    <cfRule type="expression" dxfId="1" priority="28">
       <formula>#REF!="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D34 B36 B37:D1048576 C35:D36">
-    <cfRule type="expression" dxfId="4" priority="22">
+    <cfRule type="expression" dxfId="0" priority="22">
       <formula>#REF!="X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G1="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
